--- a/doc/03_ファイル構成一覧表_ひろし.xlsx
+++ b/doc/03_ファイル構成一覧表_ひろし.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48662972-7304-4581-A255-0336317530D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BCE94D-5595-438E-A762-7AA81F3E8D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -873,7 +873,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,12 +884,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1209,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1273,7 +1267,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" ref="C3:C45" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1301,7 +1295,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1329,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1357,7 +1351,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1385,7 +1379,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1410,7 +1404,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C8" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1435,7 +1429,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C9" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1460,7 +1454,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C10" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1485,7 +1479,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C11" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1510,7 +1504,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C12" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1535,7 +1529,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C13" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1560,7 +1554,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C14" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1585,7 +1579,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C15" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1610,7 +1604,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C16" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1635,7 +1629,7 @@
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C17" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1660,7 +1654,7 @@
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C18" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1669,7 +1663,7 @@
       <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1685,7 +1679,7 @@
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C19" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1710,7 +1704,7 @@
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C20" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1735,7 +1729,7 @@
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C21" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1760,7 +1754,7 @@
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C22" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1785,7 +1779,7 @@
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C23" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1810,7 +1804,7 @@
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C24" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1835,7 +1829,7 @@
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C25" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1860,7 +1854,7 @@
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C26" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1885,7 +1879,7 @@
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C27" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1910,7 +1904,7 @@
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C28" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1935,7 +1929,7 @@
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C29" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1960,7 +1954,7 @@
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C30" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1985,7 +1979,7 @@
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C31" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2010,7 +2004,7 @@
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C32" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2035,7 +2029,7 @@
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C33" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2044,7 +2038,7 @@
       <c r="E33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -2060,7 +2054,7 @@
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C34" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2085,7 +2079,7 @@
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C35" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -2110,7 +2104,7 @@
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C36" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -2135,7 +2129,7 @@
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C37" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -2160,7 +2154,7 @@
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C38" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -2185,7 +2179,7 @@
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C39" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -2210,7 +2204,7 @@
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C40" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -2235,7 +2229,7 @@
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C41" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -2260,7 +2254,7 @@
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C42" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -2285,7 +2279,7 @@
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C43" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="D43" s="1"/>
@@ -2302,7 +2296,7 @@
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C44" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="D44" s="1"/>
@@ -2319,7 +2313,7 @@
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C45" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="D45" s="1"/>
@@ -2351,6 +2345,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2521,15 +2524,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2537,6 +2531,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2551,14 +2553,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/03_ファイル構成一覧表_ひろし.xlsx
+++ b/doc/03_ファイル構成一覧表_ひろし.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48662972-7304-4581-A255-0336317530D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B633445-817D-45F5-9E84-AEBA48776FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="115">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -786,6 +786,57 @@
     <rPh sb="22" eb="23">
       <t>ヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>style.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体のcss</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>javascript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポップアップのjs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーのjs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トグルスイッチのjs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>popup.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calendar.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>switch.js</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -873,7 +924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,12 +935,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1207,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1273,7 +1318,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" ref="C3:N46" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1301,7 +1346,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1329,7 +1374,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1357,7 +1402,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1385,7 +1430,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1410,7 +1455,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C8" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1435,7 +1480,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C9" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1460,7 +1505,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C10" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1485,7 +1530,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C11" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1510,7 +1555,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C12" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1535,7 +1580,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C13" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1560,7 +1605,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C14" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1585,7 +1630,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C15" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1610,7 +1655,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C16" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1635,7 +1680,7 @@
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C17" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1660,7 +1705,7 @@
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C18" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1669,7 +1714,7 @@
       <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1685,7 +1730,7 @@
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C19" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1710,7 +1755,7 @@
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C20" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1735,7 +1780,7 @@
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C21" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1760,7 +1805,7 @@
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C22" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1785,7 +1830,7 @@
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C23" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1810,7 +1855,7 @@
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C24" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1835,7 +1880,7 @@
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C25" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1860,7 +1905,7 @@
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C26" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1885,7 +1930,7 @@
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C27" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1910,7 +1955,7 @@
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C28" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1935,7 +1980,7 @@
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C29" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1960,7 +2005,7 @@
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C30" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1985,7 +2030,7 @@
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C31" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2010,7 +2055,7 @@
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C32" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2035,7 +2080,7 @@
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C33" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2044,7 +2089,7 @@
       <c r="E33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -2060,7 +2105,7 @@
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C34" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2085,7 +2130,7 @@
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C35" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -2110,7 +2155,7 @@
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C36" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -2135,7 +2180,7 @@
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C37" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -2160,7 +2205,7 @@
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C38" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -2185,7 +2230,7 @@
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C39" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -2210,7 +2255,7 @@
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C40" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -2235,7 +2280,7 @@
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C41" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -2260,7 +2305,7 @@
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C42" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -2285,13 +2330,21 @@
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C43" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2302,13 +2355,21 @@
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C44" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2319,13 +2380,21 @@
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C45" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2333,6 +2402,31 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="C2:N45" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
@@ -2342,7 +2436,7 @@
   </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M45" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M46" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -2351,6 +2445,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2521,15 +2624,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2537,6 +2631,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2551,14 +2653,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/03_ファイル構成一覧表_ひろし.xlsx
+++ b/doc/03_ファイル構成一覧表_ひろし.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\チーム開発演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BCE94D-5595-438E-A762-7AA81F3E8D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E2389F-4D57-41CF-B907-7BAF56C5F8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="115">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -180,22 +180,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LoginServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LogoutServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HomeServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HandbookServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ハンドブック画面の表示</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
@@ -206,10 +190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RecordServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>相談所画面の表示</t>
     <rPh sb="0" eb="5">
       <t>ソウダンジョガメン</t>
@@ -220,30 +200,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BookLifeServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ConsulServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ConsulLifeServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NewAcountServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TestServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ResultServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>衣食住をさらに細分化した画面を表示</t>
     <rPh sb="0" eb="3">
       <t>イショクジュウ</t>
@@ -423,10 +379,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>top.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>トップ画面用jsp。</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
@@ -437,10 +389,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>login.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン画面用jsp</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -451,10 +399,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>newAccount.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新規アカウント画面用jsp</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
@@ -462,23 +406,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>home.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ホーム画面用jsp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>handbook.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>handbookトップページ画面用jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>life.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -489,10 +421,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>knowledge.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>handbook:知識画面用jsp</t>
     <rPh sb="9" eb="11">
       <t>チシキ</t>
@@ -500,15 +428,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>testStart.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テストスタート画面用jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -519,10 +439,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>testResult.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト結果表示画面用jsp</t>
     <rPh sb="3" eb="5">
       <t>ケッカ</t>
@@ -533,10 +449,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>record.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>記録書一覧画面用jsp</t>
     <rPh sb="0" eb="3">
       <t>キロクショ</t>
@@ -547,10 +459,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>consul.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>相談所トップ画面用jsp</t>
     <rPh sb="0" eb="2">
       <t>ソウダン</t>
@@ -561,10 +469,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>consulLife.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>相談所：衣食住画面用jsp</t>
     <rPh sb="0" eb="2">
       <t>ソウダン</t>
@@ -578,10 +482,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>logout.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面用jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -590,67 +490,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Users.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Consuls.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Records.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Record_times.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Record_meals.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Record_excretions.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Record_sleeps.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Books.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Games.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UsersDAO.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ConsulsDAO.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RecordsDAO.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BooksDAO.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GamesDAO.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>dao</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Channel.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -786,6 +626,217 @@
     <rPh sb="22" eb="23">
       <t>ヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>style.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体のcss</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>javascript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポップアップのjs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーのjs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トグルスイッチのjs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>popup.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calendar.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>switch.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00_top.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01_login.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02_logout.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03_signUp.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04_home.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>05_record.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06_handbook.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08_knowledge.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09_testStart.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10_test.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11_testResult.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12_consul.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13_consulChannels.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01_UsersDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02_RecordsDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03_BooksDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04_ConsulsDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>05_GamesDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01_Users.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02_Records.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03_Record_times.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04_Record_meals.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>05_Record_excretions.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06_Record_sleeps.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07_Books.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08_Consuls.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09_Games.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10_Channel.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01_LoginServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02_LogoutServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03_SignUpServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04_HomeServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06_HandbookServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>05_RecordServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07_BookChoiceServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07_bookChoice.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08_TestServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09_TestResultServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10_ConsulServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11_ConsulChannelsServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -827,7 +878,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -837,6 +888,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,7 +936,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,7 +946,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1201,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1212,7 +1287,7 @@
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
     <col min="7" max="7" width="60" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
@@ -1266,21 +1341,21 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3:C45" si="0">ROW()-2</f>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C46" si="0">ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>96</v>
+      <c r="E3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1292,23 +1367,23 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>101</v>
+      <c r="E4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1320,23 +1395,23 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>97</v>
+      <c r="E5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1348,23 +1423,23 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>102</v>
+      <c r="E6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1378,21 +1453,21 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>98</v>
+      <c r="E7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1403,21 +1478,21 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>89</v>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1428,21 +1503,21 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>90</v>
+      <c r="E9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1453,21 +1528,21 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>91</v>
+      <c r="E10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1478,21 +1553,21 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>92</v>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1503,21 +1578,21 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>93</v>
+      <c r="E12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1528,21 +1603,21 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>94</v>
+      <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1553,21 +1628,21 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>95</v>
+      <c r="E14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1578,21 +1653,21 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>99</v>
+      <c r="E15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1603,21 +1678,21 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>100</v>
+      <c r="E16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1628,21 +1703,21 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>88</v>
+      <c r="E17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1653,21 +1728,21 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>34</v>
+      <c r="F18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1678,21 +1753,21 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>35</v>
+      <c r="F19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1703,21 +1778,21 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>36</v>
+      <c r="F20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1728,21 +1803,21 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>23</v>
+      <c r="F21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1753,21 +1828,21 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>37</v>
+      <c r="F22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1778,21 +1853,21 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>25</v>
+      <c r="F23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1803,21 +1878,21 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>32</v>
+      <c r="F24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1828,21 +1903,21 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>38</v>
+      <c r="F25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1853,21 +1928,21 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>39</v>
+      <c r="F26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1878,21 +1953,21 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>40</v>
+      <c r="F27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1903,21 +1978,21 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>33</v>
+      <c r="F28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1928,21 +2003,21 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>44</v>
+      <c r="D29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1953,21 +2028,21 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>46</v>
+      <c r="D30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1978,21 +2053,21 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>48</v>
+      <c r="D31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2003,21 +2078,21 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>50</v>
+      <c r="D32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2028,21 +2103,21 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>52</v>
+      <c r="D33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2053,21 +2128,21 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="D34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2078,21 +2153,21 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>56</v>
+      <c r="D35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2103,21 +2178,21 @@
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>58</v>
+      <c r="D36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2128,21 +2203,21 @@
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C37" s="1">
+      <c r="C37" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>60</v>
+      <c r="D37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2153,21 +2228,21 @@
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C38" s="1">
+      <c r="C38" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>62</v>
+      <c r="D38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2178,21 +2253,21 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C39" s="1">
+      <c r="C39" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>42</v>
+      <c r="D39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2203,21 +2278,21 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C40" s="1">
+      <c r="C40" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2228,21 +2303,21 @@
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C41" s="1">
+      <c r="C41" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>68</v>
+      <c r="D41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2253,21 +2328,21 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C42" s="1">
+      <c r="C42" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>42</v>
+      <c r="D42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2282,10 +2357,18 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2295,14 +2378,22 @@
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C44" s="1">
+      <c r="C44" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="D44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2312,14 +2403,22 @@
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C45" s="1">
+      <c r="C45" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="D45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2327,6 +2426,31 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C46" s="3">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="C2:N45" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
@@ -2336,7 +2460,7 @@
   </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M45" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M28 M3:M27 M29:M46" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -2345,15 +2469,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2524,6 +2639,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2531,14 +2655,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2553,6 +2669,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/03_ファイル構成一覧表_ひろし.xlsx
+++ b/doc/03_ファイル構成一覧表_ひろし.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\チーム開発演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E2389F-4D57-41CF-B907-7BAF56C5F8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011970A0-668C-4A2D-93CA-EB8037708519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="11508" yWindow="168" windowWidth="11604" windowHeight="11052" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -732,111 +732,111 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>01_UsersDAO.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02_RecordsDAO.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>03_BooksDAO.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>04_ConsulsDAO.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05_GamesDAO.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>01_Users.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02_Records.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>03_Record_times.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>04_Record_meals.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05_Record_excretions.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>06_Record_sleeps.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>07_Books.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>08_Consuls.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>09_Games.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10_Channel.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>01_LoginServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02_LogoutServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>03_SignUpServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>04_HomeServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>06_HandbookServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05_RecordServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>07_BookChoiceServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>07_bookChoice.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>08_TestServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>09_TestResultServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10_ConsulServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11_ConsulChannelsServlet.java</t>
+    <t>UsersDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RecordsDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BooksDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ConsulsDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GamesDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Users.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Records.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Record_times.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Record_meals.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Record_excretions.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Record_sleeps.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Books.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Consuls.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Games.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Channel.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogoutServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SignUpServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HomeServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RecordServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HandbookServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BookChoiceServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestResultServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ConsulServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ConsulChannelsServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1278,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1352,7 +1352,7 @@
         <v>47</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>56</v>
@@ -1380,7 +1380,7 @@
         <v>47</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>57</v>
@@ -1408,7 +1408,7 @@
         <v>47</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>62</v>
@@ -1436,7 +1436,7 @@
         <v>47</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>61</v>
@@ -1464,7 +1464,7 @@
         <v>47</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>58</v>
@@ -1489,7 +1489,7 @@
         <v>46</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>49</v>
@@ -1514,7 +1514,7 @@
         <v>46</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>51</v>
@@ -1539,7 +1539,7 @@
         <v>46</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>52</v>
@@ -1564,7 +1564,7 @@
         <v>46</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>53</v>
@@ -1589,7 +1589,7 @@
         <v>46</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>54</v>
@@ -1614,7 +1614,7 @@
         <v>46</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>55</v>
@@ -1639,7 +1639,7 @@
         <v>46</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>59</v>
@@ -1664,7 +1664,7 @@
         <v>46</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>50</v>
@@ -1689,7 +1689,7 @@
         <v>46</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>60</v>
@@ -1714,7 +1714,7 @@
         <v>46</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>48</v>
@@ -1739,7 +1739,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>23</v>
@@ -1764,7 +1764,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>24</v>
@@ -1789,7 +1789,7 @@
         <v>18</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>28</v>
@@ -1814,7 +1814,7 @@
         <v>18</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>25</v>
@@ -1864,7 +1864,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>19</v>
@@ -1889,7 +1889,7 @@
         <v>18</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>21</v>
@@ -2189,7 +2189,7 @@
         <v>31</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>37</v>
@@ -2469,6 +2469,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2639,15 +2648,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2655,6 +2655,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2669,14 +2677,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/03_ファイル構成一覧表_ひろし.xlsx
+++ b/doc/03_ファイル構成一覧表_ひろし.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011970A0-668C-4A2D-93CA-EB8037708519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2F7DEA-5091-4860-A639-53EAF291EE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11508" yWindow="168" windowWidth="11604" windowHeight="11052" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -792,10 +792,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Channel.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>LoginServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -837,6 +833,10 @@
   </si>
   <si>
     <t>ConsulChannelsServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Channels.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1278,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1714,7 +1714,7 @@
         <v>46</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>48</v>
@@ -1739,7 +1739,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>23</v>
@@ -1764,7 +1764,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>24</v>
@@ -1789,7 +1789,7 @@
         <v>18</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>28</v>
@@ -1814,7 +1814,7 @@
         <v>18</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>25</v>
@@ -1839,7 +1839,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>26</v>
@@ -1864,7 +1864,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>19</v>
@@ -1889,7 +1889,7 @@
         <v>18</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>21</v>
@@ -1914,7 +1914,7 @@
         <v>18</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>29</v>
@@ -1939,7 +1939,7 @@
         <v>18</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>22</v>
@@ -1964,7 +1964,7 @@
         <v>18</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>20</v>
@@ -1989,7 +1989,7 @@
         <v>18</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>27</v>
@@ -2469,15 +2469,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2648,6 +2639,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2655,14 +2655,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2677,6 +2669,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/03_ファイル構成一覧表_ひろし.xlsx
+++ b/doc/03_ファイル構成一覧表_ひろし.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2F7DEA-5091-4860-A639-53EAF291EE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ED821A-F62C-40B1-9EBB-37D86008B877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="118">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -680,62 +680,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>00_top.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>01_login.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02_logout.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>03_signUp.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>04_home.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05_record.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>06_handbook.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>08_knowledge.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>09_testStart.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10_test.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11_testResult.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12_consul.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>13_consulChannels.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>07_bookChoice.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UsersDAO.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -837,6 +781,74 @@
   </si>
   <si>
     <t>Channels.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>top.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logout.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signUp.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>record.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bookChoice.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Handbook.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>knowledge.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testStart.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testResult.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>consul.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>consulChannels.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/Record/jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/Handbook/jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/Consul/jsp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -958,7 +970,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1278,15 +1290,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43" customWidth="1"/>
     <col min="6" max="6" width="29.3984375" customWidth="1"/>
     <col min="7" max="7" width="60" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
@@ -1352,7 +1364,7 @@
         <v>47</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>56</v>
@@ -1380,7 +1392,7 @@
         <v>47</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>57</v>
@@ -1408,7 +1420,7 @@
         <v>47</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>62</v>
@@ -1436,7 +1448,7 @@
         <v>47</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>61</v>
@@ -1464,7 +1476,7 @@
         <v>47</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>58</v>
@@ -1489,7 +1501,7 @@
         <v>46</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>49</v>
@@ -1514,7 +1526,7 @@
         <v>46</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>51</v>
@@ -1539,7 +1551,7 @@
         <v>46</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>52</v>
@@ -1564,7 +1576,7 @@
         <v>46</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>53</v>
@@ -1589,7 +1601,7 @@
         <v>46</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>54</v>
@@ -1614,7 +1626,7 @@
         <v>46</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>55</v>
@@ -1639,7 +1651,7 @@
         <v>46</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>59</v>
@@ -1664,7 +1676,7 @@
         <v>46</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>50</v>
@@ -1689,7 +1701,7 @@
         <v>46</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>60</v>
@@ -1714,7 +1726,7 @@
         <v>46</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>48</v>
@@ -1739,7 +1751,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>23</v>
@@ -1764,7 +1776,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>24</v>
@@ -1789,7 +1801,7 @@
         <v>18</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>28</v>
@@ -1814,7 +1826,7 @@
         <v>18</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>25</v>
@@ -1839,7 +1851,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>26</v>
@@ -1864,7 +1876,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>19</v>
@@ -1889,7 +1901,7 @@
         <v>18</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>21</v>
@@ -1914,7 +1926,7 @@
         <v>18</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>29</v>
@@ -1939,7 +1951,7 @@
         <v>18</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>22</v>
@@ -1964,7 +1976,7 @@
         <v>18</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>20</v>
@@ -1989,7 +2001,7 @@
         <v>18</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>27</v>
@@ -2014,7 +2026,7 @@
         <v>31</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>32</v>
@@ -2039,7 +2051,7 @@
         <v>31</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>33</v>
@@ -2064,7 +2076,7 @@
         <v>31</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>45</v>
@@ -2089,7 +2101,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>34</v>
@@ -2114,7 +2126,7 @@
         <v>31</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>35</v>
@@ -2136,10 +2148,10 @@
         <v>30</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>42</v>
@@ -2161,10 +2173,10 @@
         <v>30</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>36</v>
@@ -2186,10 +2198,10 @@
         <v>30</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>37</v>
@@ -2211,10 +2223,10 @@
         <v>30</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>38</v>
@@ -2236,10 +2248,10 @@
         <v>30</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>39</v>
@@ -2261,10 +2273,10 @@
         <v>30</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>40</v>
@@ -2286,10 +2298,10 @@
         <v>30</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>41</v>
@@ -2311,10 +2323,10 @@
         <v>30</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>43</v>
@@ -2336,10 +2348,10 @@
         <v>30</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>44</v>
@@ -2460,15 +2472,27 @@
   </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M28 M3:M27 M29:M46" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M46" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F33" r:id="rId1" xr:uid="{2C071E25-6660-4AF1-B03E-5F1275A4E4DF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2639,15 +2663,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2655,6 +2670,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2669,14 +2692,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
